--- a/500all/speech_level/speeches_CHRG-114hhrg93532.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93532.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. This committee will come to order. Committee will come to order, if all members will take their seats.    Today we hear from Secretary of State John Kerry. The Secretary is just off yet another overseas trip dealing with issues that we will discuss here today.    And, Mr. Secretary, your dedication is clear to all.    Secretary Kerry comes to present his Department's budget request. Needless to say, given Washington's chronic budget deficit, wasteful spending is intolerable. Even good programs may be unsupportable at levels we would want. But we must also appreciate the many serious challenges we as a Nation, and the Department in particular, faces worldwide.    These challenges seem to grow by the day. Iran and North Korea are pursuing nuclear weapons; Russia is gobbling up neighboring Ukraine; we see beheadings, crucifixions, and immolation by ISIS; cartoonists and Jewish shoppers are targeted and killed on Paris streets. Indeed, some days it feels as if the world itself is coming off of its axis.    Regarding Iran, Mr. Secretary, all of us want to see you get a meaningful lasting agreement. But the committee, as you know, has real concerns about the direction of these talks. I am hearing less about dismantlement and more about the permanence of Iran's nuclear program.    That is particularly disturbing when you consider that international inspectors report that Iran has still not revealed its past bomb work. This should be treated as a fundamental test of the Ayatollah's intention to uphold any agreement. Iran is failing that test. Also, it is still illicitly procuring nuclear technology. Recently Iran was caught testing a new generation of supersonic centrifuges. To be frank, as this committee reads about us being on the brink of a ``historic agreement,'' you have a challenge in terms of Congressional buy-in. Meanwhile, Iran and its proxies are wreaking havoc throughout the region.    And in Eastern Europe, Russia's military aggression is matched only by the size of its propaganda. Russia is spending more than $\\1/2\\ billion annually to mislead audiences, to sow divisions, to push conspiracy theories out over RT television. Yet, the agency charged with leading our response, the Broadcasting Board of Governors--is, as your predecessor testified to us--dysfunctional. Last Congress the House passed legislation authored by Ranking Member Eliot Engel and me to fix the BBG, the Broadcasting Board of Governors. We hope to have the administration's active backing as we again push this reform.    And in the Middle East, ISIS is on the march. The administration was tragically slow to react to ISIS's rise, missing the chance to devastate them with airstrikes. During the first 7 months, 8 months of ISIS moving from Syria into Iraq, town by town, taking these cities, air power was not used to devastate these columns out on the open road as it should have been applied. Today the Kurds are still severely outgunned. Our training of the Syrian opposition isn't off the ground, and Arab allies complain they don't have the weapons needed.    And while the administration is focused on the fight against ISIS in Iraq today, it is still unclear what its plans are for Syria tomorrow. As the committee considers the President's request for a military authorization against ISIS, members need to hear a better articulation of the administration's strategy and see a strong commitment from the Commander-in-Chief.    As terrorism from Islamist terrorist groups spread, the committee knows that that puts more of our diplomats out there at risk. In the past half year, the Department has had to evacuate staff from two U.S. Embassies, Libya and Yemen.    On this note, the committee stands ready to assist the Department on Embassy security. We passed a State Department Authorization and Embassy Security bill last Congress and look forward to working with you to get our next bill signed into law. And as the Department works to finalize its second Quadrennial Diplomacy and Development Review, know that we are ready to assist the Department to be more effective and efficient to meet the demands of the 21st century's diplomacy. We have policy differences, but these should never compromise the day-to-day operation of your Department and certainly not the safety of its personnel.    Mr. Secretary, our Nation faces great challenges. Through it all, though, we must work together to ensure that America maintains its positive and essential role in the world. That is our challenge.    And I will now turn to our ranking member, Mr. Eliot Engel of New York, for his opening statement.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman.    Mr. Secretary, welcome back. We are fortunate to have you as our top diplomat as we face so many challenges around the world. Whether it is violent extremism or nuclear proliferation, health epidemics or climate change, these are challenges that threaten our security and values, and that demands robust investment in international affairs. That is why the President has put forward a strong international affairs budget, and that is why his proposal deserves the support of Congress.    The President's budget would end sequestration, something long overdue, including a 7.7 percent increase in international affairs spending. Why is this increase so important? The Kaiser Family Foundation reported recently that many Americans believe we spend much more on foreign assistance than we actually do.    Here are the facts: International affairs totals just over 1 percent of our Federal budget, and foreign aid accounts for less than 1 percent. With that narrow sliver of the pie, we are keeping Americans safe, strengthening ties around the world, and promoting American leadership abroad.    We are getting a pretty good bang for our buck. Still, we can always be more effective, more efficient, and more focused. And I would like to mention a few of my questions and concerns.    Let me start with institutional and bureaucratic challenges of the State Department. We need a Department that can adapt to evolving foreign policy and national security issues. We need diplomats equipped to deal with constantly changing demands.    Are we recruiting the best talent? Do our diplomats have the tools and training they need to do their jobs right? I am curious about how the Department will implement the forthcoming recommendations of the Quadrennial Diplomacy and Development Review.    On our response to the Ebola outbreak, Mr. Secretary, I want to applaud you, the State Department, USAID, and the thousands of heroic Americans who have played such an important role. This crisis has required tremendous resources, and our strategy is working. The situation in West Africa continues to improve, but we must remain vigilant until this scourge has been eliminated.    This crisis underscores the need for global health funding. Preventing future epidemics requires investment in research, infrastructure, and personnel. So I am disappointed by proposed cuts to global health programs dealing with tuberculosis, neglected tropical diseases, and other dangerous illnesses. I would like to find a way to avoid these cuts and keep giving these programs the resources they need.    Turning to Ukraine, I have serious doubts that the Minsk agreement will end this crisis. We have taken a handful of incremental steps, but they have not been enough to get ahead of the crisis or deter further Russian aggression. The United States has a major interest in Europe's stability and security. Decades of American investment is on the line. I know dealing with the Kremlin is delicate, but we must not allow Ukraine to lose more territory or to fail economically.    In the Middle East, more than 11 million people have been driven from their homes in Syria and more than 200,000 have been killed. This crisis has spilled across borders. It has created large-scale vulnerability to sexual assault, child marriage, hunger, and other kinds of abuse and exploitation. The budget prioritizes this humanitarian disaster, but much more needs to be done by both the United States and regional partners.    This crisis has been fueled by political instability in Iraq and Syria. The new Iraqi Prime Minister has taken some steps to make Iraq's political system more inclusive, but we remain far from the point at which Sunnis, Shia, and Kurds feel like they have a stake in Iraq's future.    The way forward in Syria is even less clear, but we know one thing for certain. That country's future should not include Assad. As you have said, Mr. Secretary, he is a one-man super magnet for terrorism. So while we are going after ISIS or the Islamic state, we should not forget that Assad must go. He cannot be part of a Syria for the future.    On that note, I welcome the President's decision to send Congress a request for a new authorization to use military force, AUMF, against ISIS. The President's proposal is a reasonable starting point, and this committee will continue our efforts to review the language and the overall strategy to defeat ISIS. I look forward to working with you and my colleagues on both sides of the aisle to make sure we get this right.    Briefly, on Iran, I have said many times that my preference is a negotiated solution to the Iranian nuclear crisis. However, we are hearing troubling reports on the scale and duration of the program, that Iran may be allowed as part of a deal. As you have said many times, Mr. Secretary, no deal is better than a bad deal. And so we must ensure that Iran has no pathway to a nuclear weapon, and that's any deal we sign is a good deal.    And, finally, I want to commend the proposed $1.1 billion in funding to address root causes of child migration from Central America. We need to ensure that these resources are targeted toward the most vulnerable communities that the children are coming from across this sub-region.    And, finally, getting back to Europe and Ukraine and Russia, I really believe that NATO hangs in the balance. I think, if Putin continues to push Ukraine around and threaten other countries and NATO is not a sufficient deterrent, we are sort of sending the word to Putin that we are really a paper tiger.    So I wish you would talk about that a little bit because I really do believe the future of NATO hangs in the balance. Four countries give 2 percent of their budget to defense as is required, and that is very, very troubling in terms of NATO.    So I thank you, Mr. Chairman, and I look forward to the Secretary's testimony.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kerry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Kerry. Well, thank you, very much, Mr. Chairman, Congressman Engel, ranking member, all the members of this committee.    In respect of your time, I will try to summarize my comments, Mr. Chairman. I hope I can do it in 5 minutes. Thereis a lot to talk about. And your questions will, needless to say, elicit an enormous amount of dialogue, which I really welcome.    I can't think of a moment where more is happening, more challenges exist, there's more transformation taking place, some of it with great turmoil, a lot of it with enormous opportunity that doesn't get daily discussion, but all of it with big choices for you, for us, you representing the American people, all of us in positions of major responsibility at this important time.    We rose to the occasion, obviously, and we would like to extol it. We all talk about it. I did certainly as a Senator. I do as Secretary of State. And that is the extraordinary contribution of the greatest generation and what they did to help us and our leaders did, Republican and Democrat alike, to put us on a course to win the battle against tyranny, dictatorship, and to win the battle for democracy and human rights and freedom for a lot of people.    And no country on the face of this planet has expended as much blood, put as many people on the line, lost as much of our human treasure, to offer other people an opportunity to embrace their future, not tell them what it has to be. It is really a remarkable story.    And now we find ourselves in a moment where we have to make some similar kinds of choices, frankly. I don't want to overblow it. I am not trying to. But this is a big moment of transformation where there are literally hundreds of millions of people emerging on this planet, young people. Count the numbers of countries where the population is 65 percent under the age of 30, 60 percent 30 and under, 50 percent under the age of 21. I mean, it is all over the place.    And if they live in a place where thereis bad governance or corruption or tyranny in this world where everybody knows how to be in touch with everybody else all the time, you have a clash of aspirations, a clash of possibilities and opportunities. And to some degree, that is what we are seeing today. That certainly was the beginning of the Arab Spring, which is now being infused with a sectarianism and confusions of religious overtones and other things that make it much more complicated than anything that has preceded this.    By the way, the Cold War was simple compared to this. Bipolar, pretty straightforward conversations. Yeah. We had to make big commitments, but it wasn't half as complicated in the context of dealing country to country and with tribes, with culture, with a lot of old history, and it is a very different set of choices.    In addition, that is complicated by the fact that many other countries today are growing in their economic power, growing in their own sense of independence, and not as willing to just take at face value what a larger G7 or G20 country tells them or what some particular alliance dictates. So that is what we are facing.    And I heard the chairman say, you know, we shouldn't compromise the day-to-day operations of the Department, but let me say to you the day-to-day operations of the Department are not confined to making an Embassy secure. We need to do that. But if that is all we do, folks, we are in trouble. We are not going to be able to protect ourselves adequately against these challenges that we face that we will talk about today.    The United States--you know, we get 1 percent of the entire budget of the United States of America. Everything we do abroad within the State Department and USAID is within that 1 percent. Everything. All the businesses we try to help to marry to economic opportunities in a country, all the visas, the consulate work, the diplomacy, the coordination of DHS, FBI, ATF--I mean, all the efforts that we have to engage in to work with other countries' intelligence organizations and so forth to help do the diplomacy around that is less than 1 percent.    I guarantee you more than 50 percent of the history of this era is going to be written out of that 1 percent and the issues we confront in that 1 percent. And I ask you to think about that as you contemplate the budgets because we have been robbing Peter to pay Paul and we have been stripping away our ability to help a country deal with those kids who may be ripe for becoming part of ISIL. We have been diminishing our capacity to be able to have the kind of impact we ought to be having in this more complicated world.    Now, I am not going to go into all of the detail because I promised I would summarize. But I believe the United States is leading extraordinarily on the basis of that 1 percent. We have led on ISIL, putting together a coalition for the first time in history that has five Arab nations engaged in military activity in another Arab country in the region against--you know, Sunni against Sunni.    I don't want to turn this into that sectarian, but it is an important part of what is happening. We helped to lead in the effort to transition in Iraq a Government that we could work with. Part of the problem in Iraq was the sectarianism that the former Prime Minister had embraced, which was dividing his nation and creating a military that was incompetent, and we saw that in the context of Mosul.    So we wanted to make sure that we had a Government that really represented people and was going to reform and move in a different direction, and we worked at it and we got it. We have it today. Is it perfect? No. But is it moving in the right direction? You bet it is.    In Afghanistan, we rescued a flawed election, brought together the parties, were able to negotiate to get a unified unity Government, which has both of the Presidential candidates working together to hold Afghanistan and define its future and negotiate a BSA that defines our future going forward and give Afghanistan a chance to make good on the sacrifices of 14 years of our troops and our contributions and so forth.    On Ebola, we led that fight. President Obama made a brave decision to send 4,000 young American troops there in order to set up the structure so we had a capacity to be able to try to deal with it. One million deaths were predicted by last Christmas at the time that we did that.    And not all the answers were there for questions that were real, but the President sent those people in. We have made the difference. And now there's a huge reduction in the cases in Liberia, Sierra Leone, Guinea, and we are not finished, but we are getting to a place where you are not seeing it on the nightly news every day and people aren't living in fear here that they are about to be infected.    On AIDS, we are facing the first AIDS-free generation in history because of the work that we have done.    On the Ukraine, we have held together Europe and the United States in unity to put in place sanctions. The ruble is down 50 percent. Therehas been $151 billion of capital flight from Russia. There has been a very significant impact on day-to-day life, on food, product availability. The economy is predicted in Russia to go into recession this year. And we are poised yet to do another round, potentially, depending on what happens with Minsk in these next few days.    On Iran, we have taken the risk of sitting down, of trying to figure out is there a diplomatic path to solve this problem. I can't sit here today and tell you I know the answer to that, but I can tell you it is worth trying before you go to more extreme measures that may result in asking young Americans yet again to put themselves in harm's way.    We are pursuing the two most significant trade agreements of recent memory, the TPP in Asia, Pacific, and the TTIP in Europe, both of which represent about 40 percent of GDP of the world, in order to have a race to the top, not a race to the bottom. And if we can achieve that, we will be achieving a major new structure with respect to trade rules on a global basis.    In Africa, we held the African Leaders Summit, an historic summit with more than 40 African leaders coming to Washington, out of which has come a series of events that will help, we hope, to meet our obligation to help transform Africa.    And, finally, on climate--there are other things, incidentally. I am just skimming the surface of some of the most important. I know not everybody here is a believer in taking steps to deal with climate. I regret that. But the science keeps coming in stronger and stronger and stronger.    On the front page of today's newspapers are stories about an Alaskan village that will have to be given up because of what is happening with climate change. There is evidence of it everywhere in the world. And we cut a deal with China, improbable as that was a year ago.    The biggest opponent of our efforts has now stood up and joined us because they see the problem and they need to respond to it. And so they have agreed to target for lowering their reliance on fossil fuel and a target for alternative renewable energy by a certain period of time, and we have set targets. And that has encouraged other countries to start to come forward and try to take part in this effort.    So I will adamantly put forward the way in which this administration is leading. I know not everybody agrees with every choice. Are there places where we need to do more? Yes. And we will talk about those, I'm sure, today. But we need to work together.    I will end by saying that, historically, that 1 percent has produced more than its monetary value precisely because your predecessors were willing to let foreign policy debate and fight become bipartisan. Let politics stop at the water's edge and find what is in the common interest of our country.    That is what brings me here today. That is why I am so privileged to serve as Secretary of State at this difficult time, because I believe America is helping to define our way through some very difficult choices.    And last thing. This is counterintuitive, but it is true. Our citizens, our world today, is actually--despite ISIL, despite the visible killings that you see and how horrific they are, we are actually living in a period of less daily threat to Americans and to people in the world than normally--less deaths--less violent deaths today than through the last century.    And so even the concept of state war has changed in many people's minds, and we are seeing now more asymmetrical kinds of struggles. So I would say to you that I see encouragement when I travel the world. I see people wanting to grow their economies. I see vast new numbers of middle class, people who are traveling. I see unbelievable embrace of new technologies. I see more democracy in places where it was nonexistent or troubled. Big changes in Sri Lanka and other countries. We can run the list.    But I hope you will sense that it is not all doom and gloom that we are looking at. Tough issues? Yes. But enormous opportunities for transformation if we will do our job and continue to be steady and put on the table the resourcesnecessary to take advantage of this moment of transformation.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Mr. Chairman.    Welcome, Mr. Secretary.    I will ask about Iran, Cuba, Venezuela, and the Palestinians.    You testified in the Senate yesterday that, ``The policy is Iran will not get a nuclear weapon.'' However, last month your deputy, Tony Blinken, testified that the deal being negotiated is meant only to constrain Iran's breakout capabilities. So which one is it? Constraining or eliminating?    And if the deal is to truly prevent Iran from ever acquiring a nuclear weapon, then why are we allowing Iran to enrich, to keep some of their stockpiles and centrifuges?    Your agreement is based on the assumption that we can verify if Iran cheats, but the Defense Science Board and former CIA Director, General Hayden, have stated that our capability to detect Iran's undeclared or covert nuclear sites is either inadequate or does not exist. So can we catch when Iran cheats? And when they do cheat--not if, but when--what consequences will Iran suffer?    And a report surfaced yesterday, as the chairman said, of an undeclared Iranian enrichment site. What information can you share about this new site? And how will this development impact the negotiations?    On Cuba, Mr. Secretary, yesterday in the Senate you said, ``The change that we are making we believe actually assists the United States to be able to promote the democracy and the rights that we want for the people of Cuba.''    However, a Cuban spy, Josefina Vidal, who is leading the Castro delegation, this week said that Havana will not accept a U.S. Embassy that will assist Cuba's civil society and said that, ``Change in Cuba isn't negotiable.''    Now, the regime has arrested over 300 opposition members in just the last 2 weeks. Berta Soler was among them. Only 3 weeks ago, Mr. Secretary, she was sitting in your chair, testifying before our committee on the gross human rights abuses going on in Cuba today. She returned to Cuba on a Saturday. She was arrested Sunday.    Yet, the U.S.-Castro talks are still scheduled to go on here at the State Department on Friday, but the U.S. didn't even get one cosmetic commitment to democratic reform from the Castro regime and the regime keeps demanding more from us: ``Give back GTMO,'' ``Pay us billions of dollars from the losses we suffered from the embargo.'' Utterly ridiculous.    And just yesterday, Mr. Secretary, Raul Castro bestowed medals on those whom your administration pardoned, including Gerardo Hernandez, who was responsible for killing U.S. citizens. On the very anniversary of the killing of our citizens, Castro gave a medal to his killer, a killer who was pardoned by this administration.    Of all the bad deals that we have seen--Bergdahl, et cetera--isn't this Cuba deal the weakest one yet?    And on Venezuela, Mr. Secretary, just a few days ago, a 14-year-old child was killed by police thugs--actually, just yesterday, 14 years old. He was shot in the head during a peaceful protest.    Now, we in Congress passed a sanctions law to punish such acts, but you have not fully implemented our law. State's decision to deny some visas to some people is only a small slap on the wrist. People are dying in Venezuela, and all we are hearing is excuses. Enough is enough.    Why have you not fully implemented every one of the sanctions laws that we passed against human rights violators in Venezuela? How many more peaceful demonstrators must die before you sanction them.    And, lastly, on the Palestinians, our courts just a few days ago, as you know, ordered the Palestinian Authority and the PLO to pay for terror. And, yet, the PA has hired a DC lobbying firm. We all know that money is fungible.    So isn't our money to the Palestinians actually paying for their court-ordered terror penalties and their lobbying efforts here in Congress?</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. I have a lot of questions for which I would just like a response in writing, and then I will end with one that I would like an oral response from.    First, I want to commend the----</t>
   </si>
   <si>
@@ -226,9 +211,6 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Chairman.    I want to thank you, Mr. Secretary, for your service and for your leadership. I certainly like the use of your phrase ``race to the top.'' If only that were true when it comes to respect for human rights among many countries around the world, including in China and Cuba.    Ileana Ros-Lehtinen--we cochaired that hearing just 3 weeks ago, and Berta Soler sat right where you sit. We were all concerned about her welfare and well-being going back. And of course she was arrested when she went back for speaking the truth. On Friday her case and that of all the dissidents hopefully will be front and center. It has to be.    I also a couple of years chaired one of 49 hearings on human rights abuses in China I have held. I can't even get a visa to go there anymore. We had five daughters who testified, all of whose fathers are political prisoners. All of them in unison as the hearing went on asked to meet with President Obama. They said, ``He has two daughters. He will understand.''    I tried for months to arrange that meeting, 5, 10 minutes with these unbelievably wonderful five daughters speaking out for their dads in prison in China. We couldn't get it. I respectfully ask perhaps you can help make that happen. Gao Zhisheng's daughter is one of those. I know you know about Gao's case. And perhaps you might even meet with them as well.    Let me ask you, on Nigeria, Mr. Secretary, will you immediately seek to restart and significantly expand critical military training of human rights-vetted Nigerian Armed Forces to combat the existential threat posed by Boko Haram?    On Iran, the status of Pastor Abedini, Robert Levinson, Amir Hekmati, and Jason Rezaian from the Washington Post, do you expect that they will be free soon?    And then, on the issue of child abduction, several deadlines have arrived, or are imminent, pursuant to the Sean and David Goldman International Child Abduction Prevention and Return Act.    And I want to thank you publicly again for your strong personal support for the new law, including the process to develop and to enter appropriate procedures, including MOUs with non-Hague countries with unresolved child abduction cases like India. Japan--as you know, has signed the Hague Convention--has been breathtakingly unresponsive especially to abductions that occurred prior to the ratification of the Hague Convention.    Iraq war veteran Michael Elias from northern New Jersey and numerous parents from the NGO BACHome have been utterly, utterly, frustrated even to meet with their children, much less get them back.    And then there is the issue of India. Bindu Philips is a New Jersey mother of twin boys abducted to India 6 years ago. Bindu got full custody in a New Jersey court, testified before my subcommittee 2 years ago, and this past Monday I met with her in my office in New Jersey and she pleaded for you, Mr. Secretary, to help her to get her kids back.    I just want to ask you because I know you have a heart for this: Did President Obama raise child abduction cases with Prime Minister Modi when they met in late January? Did you raise it on your trip earlier that month? And, if so, what was Mr. Modi's response?</t>
   </si>
   <si>
@@ -241,9 +223,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman.    Mr. Secretary, it is good to see you.    Let me first--you know, some have said that the United States no longer leads. I think they mean leading in a unilateral way. I want to compliment you on leading in this administration because I think leadership in today's world means leading in a multilateral way.    And what you and this administration have done was bring a lead by bringing countries together, whether it is bringing the country together on the P5+1, which those sanctions is what put Iran into the position that it currently is in, whether it is bringing countries together to fight Ebola, bringing countries together when we deal with the Ukrainian and Russian situation, bringing countries together to deal with ISIL.    That is leadership, and it is difficult leadership when everybody has their own competing interests. And I think that the leadership that we are doing today so that we can share this world that has shrunk by talking about, ``We just can't do it our way, by ourselves, with no one else'' is real leadership. It is hard work, and sometimes it is not thankful. So I appreciate the work that you are doing in that regard.    It is difficult because, when I look at my constituents, for example, even going back to 2003, they have had a sense of both hope and skepticism when multilateral negotiations regarding Iran's nuclear program initiated. And there have been many stops and starts since that time. And my constituency has expressed strong concern over the years about the prospects of an agreement with Iran. The current multilateral negotiations, of course, are no exception. And today we are at the precipice of a deadline set by the P5+1 under the Joint Plan of Action.    So my question simply is--and I want to ask three questions, and I am going to try to be quiet so you can answer them all--on this area, should my constituents that are so concerned--they tell me concerned and it is emotional for them because they are really concerned about the threat to Israel and about Iran having a nuclear weapon.    So should they be hopeful or skeptical at this point in the current negotiations? And what would you consider a comprehensive agreement, knowing that we are not there, if we can do that? And how does the administration's budget support that end? That is on Iran.    Quickly, I went to Asia just last week. I visited Singapore, Malaysia, and Japan. Clearly, there, being on the ground, was very helpful. Can you just tell us how important, when we look at TPP, for example, just on an economic side--but as I talked to some of those countries, they were looking at it also from a geopolitical aspect--how important it was for us to have a presence in the region.    So how important is TPP with reference to--geopolitically on top of the economics? And then when you talk about Vietnam, maybe even talking about capacity-building they are in.    Let me keep quiet and give you the few minutes I have. Because I just want to know whether we have any other tools because I--subcommittee on Europe----</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you, Mr. Secretary.    And, again, though we ask pointed questions, we wish you the best of luck and are very proud of the hard work that you are doing, even though we may have some disagreements with specific policy.    It seems to me about your opening statement--when you talked about how complicated the world is right now as compared to what confronted the greatest generation, I just would like to respectfully disagree with you. The fact is that I believe what the difference was is not that the world wasn't so complicated, but that the greatest generation knew how to set priorities.    And Reagan exemplified that in the Cold War when he said, ``What is your goal with the Soviet Union?,'' who was our primary enemy at that time. He said, ``We win. They lose.'' And he knew that that was his number one goal. By the end of his administration, we had eliminated the Cold War without a direct military confrontation with what we had been at war with in the Cold War.    I think that today we should set the priority, which is who is our primary enemy, who is the primary threat to the well-being and security of our people. And I think that we have to come to the realization that radical Islam is the primary threat to our safety.    And I know our President has a little bit of difficulty saying those words together, ``radical Islamic terrorism,'' but I have no problem saying it. And that is the primary enemy for the security of our people. That includes, by the way, the Mullah regime in Iran.    Just right off the bat, when you mentioned that the Mullahs had actually went ahead and they have actually moved forward and accomplished the agreements that they had pledged to do about nuclear weapons, did the Mullah regime tell us about the existence of this new nuclear facility that our friends in the MEK who were permitted to sit out in the middle of the desert--did we know about that nuclear facility?</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman.    Mr. Secretary, thank you for being here today.    Mr. Secretary, one of the things that I read was that the largest democracy in the Western Hemisphere encouraged us to get rid of our embargo with Cuba, that it would help the relationship.    I am just wondering why some of these countries are not speaking up against the abuses that go on in Cuba and in Venezuela. I mean, somebody pointed out before that a 14-year-old boy was shot yesterday. Places like Brazil, how come they don't say anything about the human right abuses? How come they don't say anything? If they encouraged us, it seems like we were left alone. I just think they are fearful of Cuba stirring up the university students in some of these countries.</t>
   </si>
   <si>
@@ -394,9 +367,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman.    Thank you for being here, Mr. Secretary.    Last week State Department Spokeswoman Marie Harf espoused the interesting proposition that we should create a jobs program for people who might be inclined to support groups like ISIS, jobs for Jihadists. She didn't call it that, but I will. And just where will these jobs come from? I guess not at the mall. It is apparently too dangerous to work there now.    Are these shovel-ready jobs or are they yet to be created, like Keystone Pipeline jobs? And, Mr. Secretary, did Ms. Harf consult with anyone else in the State Department--yourself or anyone--before announcing this new initiative? If not, who did she consult with?    I realize that, according to Ms. Harf, many of us are not nuanced enough to grasp the wisdom of such an enlightened proposal. And I am sure some of any colleagues would appreciate some insight just where in the heck this idea came from.</t>
   </si>
   <si>
@@ -436,9 +406,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    And welcome, Mr. Secretary.    Mr. Secretary, we had a hearing a few weeks ago, and the nuclear inspection model of South Africa came up. And the assertion was made that South Africa might be the ideal model for unannounced, unpredicted complete access. Anytime, anywhere--you name it--we get to inspect, and South Africa has agreed to that.    Have we thought about using the South Africa model for IAE inspections with respect to our negotiations with Iran?</t>
   </si>
   <si>
@@ -475,9 +442,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McCaul. Thank you, Mr. Chairman.    Mr. Secretary, let me just say sincerely I want to thank you for your service in these very challenging times we find ourselves. I appreciate your comments about the greatest generation.    My father was B-17 bombardier in the European theater. Truly was a great and is a great generation. They were all in and they were all in to win, and they won. And they defeated fascism.    I see a new threat. It is Islamist extremism. It seems to me the best homeland security policy we can have is to eliminate the threat where it exists rather than it coming into the United States.    Before this committee we will be deliberating an authorization for the use of military force. We had a meeting with White House officials--the chairman and myself and others--and were presented with the President's policy on this. I must say the reception was not a warm one.    I have concerns, concerns of a timetable telling ISIS how long we are in the fight, concerns about tying the hands of our generals, concerns about--usually, an authorization is asked for by the Congress to expand the President's authority and the military's powers rather than restrict them. I cannot support this authorization as presented by the administration.    The authorization I would like to see--and I would like to get your opinion--would be an authorization to degrade and destroy ISIS wherever they exist.    Can you tell me whether you would support an authorization like that.</t>
   </si>
   <si>
@@ -523,9 +487,6 @@
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman.    Mr. Secretary, thanks for being here. I also want to extend sincere thanks for your service at a really crucial and difficult time in our history. Thank you for that.    I want to talk about Iran and where we stand at the moment. I first want to follow up on Mr. Smith's comments from earlier. I am grateful for the way that you speak up about the Americans who are being held, and I just would implore you to continue to turn up the pressure.    In my case specifically with respect to my constituent Robert Levinson, one of two things, it seems, are going to happen over the coming months. Either negotiations will succeed and there will be some agreement on the nuclear issue or we are going to have to figure out how to deal with Iran's other despicable behavior when negotiations fall apart. Either way, pressure will significantly decrease on Iran to cooperate on the case of Mr. Levinson.    On March 9, Mr. Secretary, Bob Levinson's family will mark the 8th anniversary of his disappearance. You will meet your Iranian counterparts many times between now and then and now and the end of March. And I thank you for raising it, and I implore you to continue to do so.    Now, with respect to where we stand, you asked us not to prejudge. I don't think that we need to prejudge, but I think it is only fair to be able to comment on media reports about where this may be headed, particularly since often--let's be honest--a lot of the reports include information that comes from the administration. So given that, just a couple of points.    On enrichment, you had said earlier that you came and sat before our committee as others suggested the JPOA might not work. But, also, if I recall, at that hearing, with respect to enrichment, in the JPOA, it referred to a mutually agreed-upon level of enrichment, which you suggested might well be zero. It is not just actions taken in prior administrations. The U.N. seven times in security resolutions suggested that there would be no enrichment.    So the frustration that some have when you look at a deal that may ultimately include as many as 6,000 or 7,000 centrifuges is trying to understand why Iran would need that many, since currently there is one nuclear reactor that is fueled by Russian fuel. They can't use any of the uranium they are enriching to fuel that reactor. There is just some concern about how we have gotten to that point. That is number 1.    Number 2, when you talked about Iranian compliance with the JPOA, you said that the IAEA has certified that they have complied in every way, but Deputy Secretary Blinken testified just last month that there were situations that we believe were violations of the JPOA. I would like to know what those were and what it says about Iranian intentions for a long-term agreement if they are already violating those terms.    Next, on the issue of PMD, also the IAEA there published 12 sets of questions about Iran's past work, and Iran has only partially tackled one of those issues. Again, as we look toward a potential agreement, how can we be assured that Iran will comply with it if they are not willing to come clean on what they have done in the past?    I would ask if you can confirm that any deal can only be agreed upon if it provides for anytime, anywhere, inspections.    And, finally, for me and for a lot of us here, most importantly, the role of Congress, you had said yesterday on the Senate that, of course, we will have a chance to review it and we will have a vote because a vote will be necessary to ultimately terminate sanctions. That is clear to us. I appreciate you saying it.    If you could speak to Congress's role going forward and answer also whether you believe we should start talking now whether there is a role for Congress to play in talking about what would happen in the event there is a deal and in the event that Iran violates the terms of that deal. Would it be helpful for Congress to work with the administration to lay out specifically what the ramifications would be in that instance?</t>
   </si>
   <si>
@@ -538,9 +499,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Thank you, Mr. Secretary, for being here.    I will start with ISIS. I think it is important that we define different participants in this war with ISIS. I think it is important that we define who the enemy is, whether it is ISIS or IS or ISIL or Daesh, as it is now being called. I define them as radical Islamic terrorists. I want to know what you define them as.    The second question is, we need to define who the victims are that these folks are killing. The victims have been people who, in the name of free press, criticize them, Jews, Christians, and other Muslims who don't agree with their idea of Islam.    And the third is we need to define why they do this. What is the cause of this reign of terror throughout the world? My opinion is they do this in the name of their radical Islamic religious beliefs.    And then the plan. What is the plan? We don't have time for you and I to discuss what the plan is to defeat them.    So how would you define the enemy? Would you define them as Islamic radical terrorists?</t>
   </si>
   <si>
@@ -604,9 +562,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    And thank you, Mr. Secretary.    Just on the Iran issue. Centrifuges, uranium enrichment, breakout capability. Ten years ago, Iran had about 164 operational centrifuges, which are the machines which mix uranium at supersonic speeds to create weapons-grade material. Today there is over 19,000, and it is suggested that 9,400 of them are operational centrifuges to enrich uranium.    How important is the number of centrifuges to the negotiations ongoing right now?</t>
   </si>
   <si>
@@ -631,9 +586,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Secretary, I would like to ask you about the U.S. hostage policy. As you know, Kayla Mueller, a young, idealistic, and inspiring Arizona women who traveled to the Middle East to help Syrian refugees, was captured and held by ISIS terrorists for over 18 months before she was tragically killed in their captivity.    While Kayla is the first American woman captured, held, and brutally killed by these terrorist thugs, other Americans have suffered this fate, which I hope we can all agree is unacceptable.    Now, recently Kayla's family gave an interview where they discussed what they went through over the last 18 months with the terrorists seeking a dollar ransom. And then, after the administration announced that they had traded five known and dangerous terrorists for Sergeant Bergdahl, ISIS changed their demands from merely money to the release of a terrorist jailed here in the U.S.    Essentially, once ISIS learned that the U.S. does indeed negotiate with terrorists, they demanded more for the life of Kayla Mueller.    Of course, it goes without saying that the devastation the family felt when they realized President Obama would negotiate with terrorists for a soldier that deserted his unit but not for their daughter.    Mr. Secretary, I would just like a yes or no answer on this, and then you can expound on the next part of the question, but were you consulted when the administration decided to conduct a prisoner swap for Sergeant Bergdahl, and can you just tell me yes or no?</t>
   </si>
   <si>
@@ -673,9 +625,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman.    Thank you, Mr. Secretary, for your extraordinary work in promoting U.S. foreign policy all around the world and during very challenging times. So I think we are all grateful for your service.    I have a series of questions that I will submit for the record and ask for a written response related to Armenia and Nagorno-Karabakh; our relationship with Portugal and the Azores; international family planning; U.N. peacekeeping; the continued fight against Ebola in West Africa; and 100th Commemoration of the Armenian Genocide. And I look forward to your responses on those issues.    But I want to begin today to speak about the atrocities that we continue to hear reported in Syria, particularly torture and murder and even some claims of the use of chemical weapons. Regardless of the person responsible for these crimes, I think most would agree that they warrant immediate attention by the international community.    I know Russia and China have impeded our efforts at the United Nations, and I am just wondering what we are doing to help push a referral to the International Criminal Court or other things to really hold those individuals accountable for the atrocities that are occurring--happening in Syria, and, secondly, if you would speak to--as we consider the President's request for the authorization of the use of military force, many of us are very concerned about what our partners in the region are doing, what the Europeans are doing, should our Middle Eastern and Gulf allies, such as Saudi Arabia, Jordan, the UAE, and Egypt be playing a more prominent role. Do they have the capacity to play a more prominent role? There has been a sort of universal consensus that this is going to require air operations and ground troops and a commitment not to use U.S. ground troops, but what is the capacity of our partners in the region? Are they--I know we are heard a lot about 60 countries, but what are they actually doing? What do they have the capacity to do, and how much of this will necessarily fall on the United States to defeat and--degrade and defeat ISIL or </t>
   </si>
   <si>
@@ -688,9 +637,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Thank you, Mr. Secretary, and thank you for your service and for being in many ways one of the leading characters on foreign policy long before you came to this job.    Today we are primarily talking, obviously, about budget requests, and I think I will try to stick mostly to that, but I wanted to first of all thank you for the work that is being done on the 123 Agreements, South Korea and China. I am very supportive of our partner in South Korea and in trying to meet their expectations. Obviously, we have great concerns about any agreement with a country like China, who has a record of not keeping those agreements. And we will be looking at it, and I appreciate your continued work on it and the Assistant Secretary's work.    Additionally, as we talked about just a little bit in the back, the Embassy security around the world and the rate at which the State Department has slowed in the construction of new Embassies and consulates, which, from my observation both here and in another committee, seems to have more to do with a return to one-off designs rather than the standard build that was working so well for many years.    Can you briefly tell us--can you--can you say that the new system is going to deliver the same speed and cost that the other had did because, quite frankly, so far, the Embassies being built, including the Embassy in Beirut that I am deeply concerned about, appear to be, again, one-off designs that have more architectural uniqueness to them than they should. Obviously, the moat that surrounds the unique design in London might be very British, but it concerns us at a cost of $1.2 billion.    So do you have a commitment to at least use a standard design whenever possible?</t>
   </si>
   <si>
@@ -742,9 +688,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman, and I want to thank the Secretary. I know firsthand by his absence from Massachusetts how hard he has been working throughout the world, and how personally he has sacrificed for our country, and I want to thank you for that.    I just want to follow up on an area of concern to me personally that we have been working on in this committee, and you did it briefly with an exchange with Chairman Royce regarding the U.S. Broadcasting Board of Governors, which I think is one of the more important areas we should stress. I am hearing that time and time again from leaders from other European countries that have come to see me, and without exception, particularly in theEastern European area, they are saying how one-sided it seems to them; how they are worried about Russia powering up their propaganda, and they are also concerned about the deployment of the Internet in terms of terrorist organizations. So, also, similarly with the Center for Strategic Counterterrorism Communications and working online with forums to build a better counternarrative, how that could compliment these efforts as well.    So I would just like to ask the Secretary what plans they have. I know that they are undertaken already, but what do you envision in that regard and what the prospects of success and sort of ramping up our involvement with the Broadcasting Board of Governors and with the Strategic Center for Counterterrorism Communications? It is an important area that I think is cost-effective for our funding and something that can be very helpful and send the right message to our allies in Europe as well.</t>
   </si>
   <si>
@@ -760,9 +703,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, chairman.    Good afternoon, Mr. Secretary.    Mr. Secretary, I want to talk about Yemen for a moment. Since 2006, we have given them about $500 million in military assistance. Now, since we have had the overthrow that we have seen, there is money slated for Yemen. I am just going to make an assumption here that that is not going to happen, given the circumstances there, but can you address the issue as to what you--what we know about the weapons--the U.S. weapons that were there? Where are they? Who has them? Would you comment on that, please?</t>
   </si>
   <si>
@@ -805,9 +745,6 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Oh, don't be afraid of that, please. I wouldn't want that on your conscience, Mr. Chairman.    Mr. Secretary----</t>
   </si>
   <si>
@@ -883,9 +820,6 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman.    Mr. Secretary, please don't disarm United States Marines ever again. That was wrong.    Does the administration plan to take Cuba off the State Sponsor of Terrorism List?</t>
   </si>
   <si>
@@ -919,9 +853,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chair, and also Ranking Member Engel, and Secretary Kerry.    First, I want to thank you for being here--I was going to say this morning--but this afternoon. And I want to thank you personally for your recent appointment of Randy Berry as the Special Envoy for LGBT Rights in the Bureau of Democracy, Human Rights and Labor. This is an important, I think, and critical step in protecting the human rights of LGBT individuals. Senator Markey and myself in both Houses had introduced legislation that would have the same goal, but you stepped forward before this legislation even moved forward. I just look forward to seeing you and also Special Envoy Berry this week.    But I have to--I want to ask some very specific questions--maybe you can just answer later on--about which I am very positive, about the giving of the $1 billion for Central America. And you talked about how in Central America--maybe you can answer these--I will state them--in writing, and I will submit them this writing--the real lack of educational opportunities, the violence, the lack of sufficient investment, and the corruption, have been part of the root causes that have allowed for the migration to the United States.    My question is, how will this new policy that we are doing really reduce poverty, corruption, and enhance security? How is it different from what we have done before? Are we going to look at some very specific purposes? We hear all along throughout the world that we are going to reduce corruption. I would really like to know how you see what we are doing as really aiding in this. And also, in Guatemala, Honduras, and El Salvador, are they going to raise the revenue to help to do this? Are they going to introduce and actually collect additional revenues or taxes to really help themselves also? Or what does this mean in terms of our ongoing relationship with----</t>
   </si>
   <si>
@@ -943,9 +874,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Secretary, for sharing your insight with us here today. I am going to focus on the Authorization for Use of Military Force against the Islamic State of Iraq and the Levant. And as I understand it--and I think you have confirmed this--there are no geographic limitations in the force authorization sought by the President. Is that a fair statement?</t>
   </si>
   <si>
@@ -997,9 +925,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair.    Mr. Secretary, pardon my voice, but I want to thank you for your service. I truly admire what you have to deal with. And earlier, you rightly stated that we live in a very complex world. The threats we face are multifaceted, unlike the bipolar threat we faced during the cold war. I just call it complexity on steroids, and I think you are dealing with a puzzle that doesn't have the pieces that match. And I am interested in how we manage and balance competing interests in the world, and I want to give just examples. So, for example, when we respond to Russian aggression threats, especially to our allies in Europe, how does that impact our effort to prevent a nuclear Iran or reach a political solution with Assad? When we go to eliminate ISIL, are we thereby strengthening Assad, who is killing hundreds of thousands of his own people? Are we strengthening Iran, like we did when we overthrew Saddam Hussein?    And I know, I think we see Egypt as an ally against ISIL, and so the question is why do we continue to withhold financial support? So I guess my question is, what is the guiding strategy for American foreign policy in this very interconnected complex world?</t>
   </si>
   <si>
@@ -1015,9 +940,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Mr. Secretary, since it is down to one question, I have been very keen on not criticizing the ongoing negotiations you have with Iran, so I will ask this one specific question. For over 2\\1/2\\ years, Pastor Saeed Abedini has been held by Iran. How can we--how can the American people expect that they are going to negotiate in good faith when we can't get an American citizen, a pastor, that really was thrown in the jail----</t>
   </si>
   <si>
@@ -1027,9 +949,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman. Thank you, Mr. Secretary, for being here. My question is with regards to the AUMF that is before Congress and Syria and wondering as it states in the AUMF action against ISIL or associated persons, would there be an interpretation of this that would permit the U.S. and either individually or working with partners, to remove people like Assad or other dictators in other nations as it deems that their position of being in power stands in the way of defeating ISIL?</t>
   </si>
   <si>
@@ -1039,9 +958,6 @@
     <t>412489</t>
   </si>
   <si>
-    <t>Reid J. Ribble</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ribble. Thank you, Mr. Chairman.    And, Mr. Secretary, thank you for being here. And my question is in relationship to the Democratic Republic of the Congo. I know you have been involved related to exit permit suspensions. Could you tell us what we could do here in the Congress to facilitate the State Department's work to help these families gets their children home?</t>
   </si>
   <si>
@@ -1051,9 +967,6 @@
     <t>412652</t>
   </si>
   <si>
-    <t>Brendan F. Boyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Boyle. Thank you.    And I waited the 3 hours here to ask this one question because I was concerned that this issue might be overlooked with the plethora of issues that we have and that you have, Secretary Kerry, around the world. One of the great achievements of the last 20 years of American foreign policy was forging a peace agreement in Northern Ireland. We are now 15, 16 years on from the Good Friday Agreement, and tensions still remain. The House, the Senate, on a bipartisan basis, appropriated $2.5 million for the International Fund for Ireland, but the State Department is hesitating in releasing it.    Secretary Kerry, would you please commit to me and to Congress that these funds will be released by the State Department, and the United States will continue to play a strong and active role in the Northern Ireland peace situation?</t>
   </si>
   <si>
@@ -1063,16 +976,10 @@
     <t>412646</t>
   </si>
   <si>
-    <t>Lee M. Zeldin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zeldin. Thank you, Mr. Chairman.    Mr. Secretary, there was a letter that was sent from the President to Congress with the Authorization for the Use of Force. If I could just read a couple of sentences from that letter: The authorization I propose would provide the flexibility to conduct ground combat operations in other more limited circumstances, such as rescue operations involving U.S. or coalition personnel or the use of Special Operations Forces to take military action against ISIL leadership. It would also authorize the use of U.S. forces in situations where ground combat operations are not expected or intended, such as intelligence collection and sharing, missions to enable kinetic strikes, or the provision of operational planning and other forms of advice and assistance to partner forces.    So this is a letter from the President, four or five paragraphs that accompanied the request for the Authorization for the Use of Force.    When Congressman Grayson was asking whether or not the authorization was providing authorization for offensive operations, you had indicated no. Obviously, for several months, we have been utilizing strikes from the air, which, you know, one could argue are offensive in nature. So I am just looking for a little bit more clarity on what, specifically from an offensive end, the President is looking to do to defeat ISIS; what is the limit of his authority under this authorization?</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Mr. Emmer.</t>
-  </si>
-  <si>
-    <t>Emmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Emmer. Mr. Secretary, thank you again for all your time today. Mine is a question I wanted to ask you relates to something that really shouldn't be partisan as at all. It is about America's economy and the opportunities that it should provide for American workers and entrepreneurs.    You have long been an advocate for trade, long before this position, and I would like to ask you to give me some details so that our friends on both sides, regardless of political persuasion, understand how important the economic opportunities presented by Trade Promotion Authority and the possibility of getting trade agreements are to our national security.</t>
@@ -1480,11 +1387,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1504,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1532,11 +1435,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1556,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1584,11 +1483,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1610,11 +1507,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1634,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1662,11 +1555,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1686,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1714,11 +1603,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1738,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1766,11 +1651,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1790,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1818,11 +1699,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1842,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1870,11 +1747,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1894,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1922,11 +1795,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1946,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1972,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1998,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2024,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2052,11 +1915,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2076,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2102,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2128,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2154,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2180,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2206,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2232,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2260,11 +2107,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2284,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2310,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2336,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2364,11 +2203,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2388,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2416,11 +2251,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2440,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2468,11 +2299,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2492,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2518,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2544,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2570,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2596,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2622,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2650,11 +2467,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2674,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2702,11 +2515,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2726,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2752,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2780,11 +2587,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2804,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2830,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2856,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2882,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2910,11 +2707,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2934,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2960,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2986,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3012,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3038,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3064,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3090,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>81</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3116,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3142,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3168,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3194,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3220,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3246,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3272,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3298,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3324,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3350,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3376,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3402,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3428,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3454,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3480,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3508,11 +3259,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3532,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3560,11 +3307,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3584,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3610,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3636,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3662,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3688,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>108</v>
-      </c>
-      <c r="G87" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3714,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3740,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3766,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3792,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>109</v>
-      </c>
-      <c r="H91" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3818,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3844,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3870,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3896,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3922,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3950,11 +3667,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3974,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4000,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4026,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4052,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4078,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4104,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4130,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4156,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4182,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
+        <v>116</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
         <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
-      <c r="H106" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4208,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4234,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4262,11 +3955,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4286,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>139</v>
-      </c>
-      <c r="G110" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4312,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4338,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>139</v>
-      </c>
-      <c r="G112" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4364,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4390,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>139</v>
-      </c>
-      <c r="G114" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4416,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4442,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
-      </c>
-      <c r="G116" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4468,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4494,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
-      </c>
-      <c r="G118" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4520,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4548,11 +4219,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4572,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
-      </c>
-      <c r="G121" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4598,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4624,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
-      </c>
-      <c r="G123" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4650,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4676,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
-      </c>
-      <c r="G125" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4702,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4728,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G127" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4754,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4780,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4806,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4832,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
         <v>152</v>
-      </c>
-      <c r="G131" t="s">
-        <v>153</v>
-      </c>
-      <c r="H131" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4858,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4884,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4912,11 +4555,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4936,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
-      </c>
-      <c r="G135" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4962,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4990,11 +4627,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5014,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>173</v>
-      </c>
-      <c r="G138" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5040,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5066,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>173</v>
-      </c>
-      <c r="G140" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5092,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5118,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>173</v>
-      </c>
-      <c r="G142" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5144,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5170,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>173</v>
-      </c>
-      <c r="G144" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5196,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5222,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>173</v>
-      </c>
-      <c r="G146" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5248,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5274,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>173</v>
-      </c>
-      <c r="G148" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5300,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5326,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
+        <v>160</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
         <v>173</v>
-      </c>
-      <c r="G150" t="s">
-        <v>174</v>
-      </c>
-      <c r="H150" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5352,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5378,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
-      </c>
-      <c r="G152" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5404,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5430,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>173</v>
-      </c>
-      <c r="G154" t="s">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5458,11 +5059,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5482,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5510,11 +5107,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5534,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>195</v>
-      </c>
-      <c r="G158" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5560,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5586,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>195</v>
-      </c>
-      <c r="G160" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5612,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5638,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>195</v>
-      </c>
-      <c r="G162" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5664,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5692,11 +5275,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5716,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>204</v>
-      </c>
-      <c r="G165" t="s">
-        <v>205</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5742,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5768,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>204</v>
-      </c>
-      <c r="G167" t="s">
-        <v>205</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5794,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5820,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>204</v>
-      </c>
-      <c r="G169" t="s">
-        <v>205</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5846,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5872,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>204</v>
-      </c>
-      <c r="G171" t="s">
-        <v>205</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5898,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5924,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>204</v>
-      </c>
-      <c r="G173" t="s">
-        <v>205</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5950,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5976,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>204</v>
-      </c>
-      <c r="G175" t="s">
-        <v>205</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6004,11 +5563,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6028,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
-      </c>
-      <c r="G177" t="s">
-        <v>219</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6054,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6082,11 +5635,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6106,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>223</v>
-      </c>
-      <c r="G180" t="s">
-        <v>224</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6132,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6158,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>223</v>
-      </c>
-      <c r="G182" t="s">
-        <v>224</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6184,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6210,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>223</v>
-      </c>
-      <c r="G184" t="s">
-        <v>224</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6236,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6262,13 +5801,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>223</v>
-      </c>
-      <c r="G186" t="s">
-        <v>224</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6288,13 +5825,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6316,11 +5851,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6340,13 +5873,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6366,13 +5897,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>223</v>
-      </c>
-      <c r="G190" t="s">
-        <v>224</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6394,11 +5923,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6418,13 +5945,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6444,13 +5969,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>223</v>
-      </c>
-      <c r="G193" t="s">
-        <v>224</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6470,13 +5993,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6498,11 +6019,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6522,13 +6041,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>241</v>
-      </c>
-      <c r="G196" t="s">
-        <v>242</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6548,13 +6065,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6574,13 +6089,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>241</v>
-      </c>
-      <c r="G198" t="s">
-        <v>242</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6602,11 +6115,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6626,13 +6137,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>247</v>
-      </c>
-      <c r="G200" t="s">
-        <v>248</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6652,13 +6161,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6678,13 +6185,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>247</v>
-      </c>
-      <c r="G202" t="s">
-        <v>248</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6704,13 +6209,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6730,13 +6233,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>247</v>
-      </c>
-      <c r="G204" t="s">
-        <v>248</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6756,13 +6257,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6782,13 +6281,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>247</v>
-      </c>
-      <c r="G206" t="s">
-        <v>248</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6808,13 +6305,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6834,13 +6329,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>247</v>
-      </c>
-      <c r="G208" t="s">
-        <v>248</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6860,13 +6353,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6886,13 +6377,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>247</v>
-      </c>
-      <c r="G210" t="s">
-        <v>248</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6912,13 +6401,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6940,11 +6427,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6964,13 +6449,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>262</v>
-      </c>
-      <c r="G213" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6992,11 +6475,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7016,13 +6497,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>262</v>
-      </c>
-      <c r="G215" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7042,13 +6521,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7068,13 +6545,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>262</v>
-      </c>
-      <c r="G217" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7094,13 +6569,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7120,13 +6593,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>262</v>
-      </c>
-      <c r="G219" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7146,13 +6617,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7172,13 +6641,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>262</v>
-      </c>
-      <c r="G221" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7198,13 +6665,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7224,13 +6689,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>262</v>
-      </c>
-      <c r="G223" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7250,13 +6713,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7276,13 +6737,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>262</v>
-      </c>
-      <c r="G225" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7302,13 +6761,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7328,13 +6785,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>262</v>
-      </c>
-      <c r="G227" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7354,13 +6809,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7380,13 +6833,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>262</v>
-      </c>
-      <c r="G229" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7406,13 +6857,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7432,13 +6881,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>262</v>
-      </c>
-      <c r="G231" t="s">
-        <v>263</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7458,13 +6905,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7484,13 +6929,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
+        <v>242</v>
+      </c>
+      <c r="G233" t="s"/>
+      <c r="H233" t="s">
         <v>262</v>
-      </c>
-      <c r="G233" t="s">
-        <v>263</v>
-      </c>
-      <c r="H233" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7510,13 +6953,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7538,11 +6979,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7562,13 +7001,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7590,11 +7027,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7614,13 +7049,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>288</v>
-      </c>
-      <c r="G238" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7640,13 +7073,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7666,13 +7097,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>288</v>
-      </c>
-      <c r="G240" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7692,13 +7121,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7718,13 +7145,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>288</v>
-      </c>
-      <c r="G242" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7744,13 +7169,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7770,13 +7193,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>288</v>
-      </c>
-      <c r="G244" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7796,13 +7217,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7822,13 +7241,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>288</v>
-      </c>
-      <c r="G246" t="s">
-        <v>289</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7850,11 +7267,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7874,13 +7289,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>300</v>
-      </c>
-      <c r="G248" t="s">
-        <v>301</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7900,13 +7313,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7928,11 +7339,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7952,13 +7361,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7978,13 +7385,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>300</v>
-      </c>
-      <c r="G252" t="s">
-        <v>301</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8006,11 +7411,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8030,13 +7433,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>308</v>
-      </c>
-      <c r="G254" t="s">
-        <v>309</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8056,13 +7457,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8082,13 +7481,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>308</v>
-      </c>
-      <c r="G256" t="s">
-        <v>309</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8108,13 +7505,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8134,13 +7529,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>308</v>
-      </c>
-      <c r="G258" t="s">
-        <v>309</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8160,13 +7553,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8186,13 +7577,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>308</v>
-      </c>
-      <c r="G260" t="s">
-        <v>309</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8212,13 +7601,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8238,13 +7625,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>308</v>
-      </c>
-      <c r="G262" t="s">
-        <v>309</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8264,13 +7649,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8290,13 +7673,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>308</v>
-      </c>
-      <c r="G264" t="s">
-        <v>309</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8316,13 +7697,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
-      </c>
-      <c r="G265" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8342,13 +7721,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>308</v>
-      </c>
-      <c r="G266" t="s">
-        <v>309</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8368,13 +7745,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>18</v>
-      </c>
-      <c r="G267" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8396,11 +7771,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8420,13 +7793,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>18</v>
-      </c>
-      <c r="G269" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8446,13 +7817,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>326</v>
-      </c>
-      <c r="G270" t="s">
-        <v>327</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8472,13 +7841,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>18</v>
-      </c>
-      <c r="G271" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8500,11 +7867,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>12</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8524,13 +7889,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>18</v>
-      </c>
-      <c r="G273" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8550,13 +7913,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>332</v>
-      </c>
-      <c r="G274" t="s">
-        <v>333</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8578,11 +7939,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8602,13 +7961,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>336</v>
-      </c>
-      <c r="G276" t="s">
-        <v>337</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8630,11 +7987,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8654,13 +8009,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>340</v>
-      </c>
-      <c r="G278" t="s">
-        <v>341</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8682,11 +8035,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8706,13 +8057,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>344</v>
-      </c>
-      <c r="G280" t="s">
-        <v>345</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8734,11 +8083,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8758,13 +8105,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>348</v>
-      </c>
-      <c r="G282" t="s">
-        <v>349</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8786,11 +8131,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8810,13 +8153,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>18</v>
-      </c>
-      <c r="G284" t="s">
-        <v>352</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8836,13 +8177,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>18</v>
-      </c>
-      <c r="G285" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8864,11 +8203,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
